--- a/simulations/raw_inclusion_exclusion/Menon_2022 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Menon_2022 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>240</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D3">
-        <v>234.5</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>178</v>
       </c>
       <c r="C4">
+        <v>154</v>
+      </c>
+      <c r="D4">
         <v>166</v>
-      </c>
-      <c r="D4">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>51</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>62</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>58.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>105</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>99.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>130</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>119.5</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -526,10 +526,10 @@
         <v>282</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D10">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>78</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>74.5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>84</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>78.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>43</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>28.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>173</v>
       </c>
       <c r="C14">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D14">
-        <v>157.5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>120</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>109.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -624,10 +624,10 @@
         <v>201</v>
       </c>
       <c r="C17">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D17">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -652,10 +652,10 @@
         <v>95</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>85.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>55</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>33.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>115</v>
       </c>
       <c r="C21">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>118</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>865</v>
       </c>
       <c r="C22">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="D22">
-        <v>856</v>
+        <v>864.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>167</v>
       </c>
       <c r="C23">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="D23">
-        <v>171.5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>199</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="D25">
-        <v>104.5</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>244</v>
       </c>
       <c r="C26">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D26">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>102</v>
       </c>
       <c r="C27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>102.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>223</v>
       </c>
       <c r="C28">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D28">
-        <v>185.5</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>124</v>
       </c>
       <c r="C29">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>115.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>37</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>57</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>222</v>
       </c>
       <c r="C32">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D32">
-        <v>196</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>88</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>84</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>129</v>
       </c>
       <c r="C34">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D34">
-        <v>120</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>53</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>46.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>35.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>910</v>
       </c>
       <c r="C40">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="D40">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>89</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41">
-        <v>80.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>38</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>73</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>68.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>356</v>
       </c>
       <c r="C44">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D44">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>87</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>33</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>268</v>
       </c>
       <c r="C47">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D47">
-        <v>267.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>213</v>
       </c>
       <c r="C48">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D48">
-        <v>219.5</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>41</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>358</v>
       </c>
       <c r="C51">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D51">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>24</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>46</v>
       </c>
       <c r="C54">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>44.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>175</v>
       </c>
       <c r="C55">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D55">
-        <v>179.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>132</v>
       </c>
       <c r="C56">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D56">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>202</v>
       </c>
       <c r="C57">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D57">
-        <v>188.5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>123</v>
       </c>
       <c r="C59">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>114.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>106</v>
       </c>
       <c r="C60">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D60">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61">
-        <v>68.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>788</v>
       </c>
       <c r="C62">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D62">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>261</v>
       </c>
       <c r="C64">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="D64">
-        <v>239</v>
+        <v>265.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>190</v>
       </c>
       <c r="C65">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D65">
-        <v>176.5</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1307,10 +1307,10 @@
         <v>127</v>
       </c>
       <c r="C66">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>111.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>31</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D68">
-        <v>64.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1349,10 +1349,10 @@
         <v>134</v>
       </c>
       <c r="C69">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D69">
-        <v>132.5</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1363,10 +1363,10 @@
         <v>77</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D70">
-        <v>72.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1391,10 +1391,10 @@
         <v>140</v>
       </c>
       <c r="C72">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D72">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>59</v>
       </c>
       <c r="C73">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D73">
-        <v>52.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1433,10 +1433,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75">
-        <v>73</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1447,7 +1447,7 @@
         <v>139.1643835616438</v>
       </c>
       <c r="C76">
-        <v>125.6756756756757</v>
+        <v>125.6081081081081</v>
       </c>
     </row>
   </sheetData>
